--- a/xlsx/FR/policies_cost_effective_FR.xlsx
+++ b/xlsx/FR/policies_cost_effective_FR.xlsx
@@ -12,30 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">A ban on combustion-engine cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A green infrastructure program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A carbon tax with cash transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither agree or disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly agree</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0251054731935779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0353995792623629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0265368408845594</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.097826336455253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.117828290553112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.0864004803732454</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.312425354028907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.347321185539457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.398672425347852</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +431,27 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.384222034932459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.323633853809494</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.352796797369727</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.180420801389803</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.175817090835574</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.135593456024617</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/policies_cost_effective_FR.xlsx
+++ b/xlsx/FR/policies_cost_effective_FR.xlsx
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0251054731935779</v>
+        <v>0.0215793953315256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0353995792623629</v>
+        <v>0.0348055979711985</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0265368408845594</v>
+        <v>0.0275305272367295</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.097826336455253</v>
+        <v>0.0890741753657559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.117828290553112</v>
+        <v>0.125680801723932</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0864004803732454</v>
+        <v>0.0663755901033386</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.312425354028907</v>
+        <v>0.310801201836499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.347321185539457</v>
+        <v>0.341000560065969</v>
       </c>
       <c r="D4" t="n">
-        <v>0.398672425347852</v>
+        <v>0.400025790469245</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.384222034932459</v>
+        <v>0.386580333497091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.323633853809494</v>
+        <v>0.314200535145692</v>
       </c>
       <c r="D5" t="n">
-        <v>0.352796797369727</v>
+        <v>0.340282418425601</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.180420801389803</v>
+        <v>0.191964893969128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.175817090835574</v>
+        <v>0.184312505093208</v>
       </c>
       <c r="D6" t="n">
-        <v>0.135593456024617</v>
+        <v>0.165785673765086</v>
       </c>
     </row>
   </sheetData>
